--- a/jshow/src/main/resources/templates/fill_excel.xlsx
+++ b/jshow/src/main/resources/templates/fill_excel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>test-header  , today is {nowDate} , create by {author}</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>{data2.name}</t>
-  </si>
-  <si>
-    <t>{data1.name}</t>
   </si>
   <si>
     <t>{data2.total}</t>
@@ -1078,7 +1075,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1139,25 +1136,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="6:10">
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="6:10">
@@ -1166,7 +1151,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
